--- a/src/test/resources/TestData/OpenEmrData.xlsx
+++ b/src/test/resources/TestData/OpenEmrData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiran.javali\eclipse-workspace\OpenEmrApplication\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F46C964-B1B7-47E2-8277-A32BDBA08E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8C83E5-0CCF-4898-B2B5-A2C6B5CCB856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6F8D6AB3-B739-4FCC-A413-559FED635CA7}"/>
   </bookViews>
